--- a/src/main/webapp/document/Accounts.xlsx
+++ b/src/main/webapp/document/Accounts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>Stt</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>2009-08-27</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngọc Hân</t>
+  </si>
+  <si>
+    <t>ngan2705</t>
+  </si>
+  <si>
+    <t>thanhhiep4436@gmail.com</t>
+  </si>
+  <si>
+    <t>2003-05-27</t>
+  </si>
+  <si>
+    <t>2023-10-13 10:21:53.193</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -803,6 +818,41 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/document/Accounts.xlsx
+++ b/src/main/webapp/document/Accounts.xlsx
@@ -771,7 +771,7 @@
         <v>60</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>28</v>

--- a/src/main/webapp/document/Accounts.xlsx
+++ b/src/main/webapp/document/Accounts.xlsx
@@ -806,7 +806,7 @@
         <v>63</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>28</v>
@@ -841,7 +841,7 @@
         <v>67</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s" s="0">
         <v>68</v>
